--- a/KeralaFCBidding.xlsx
+++ b/KeralaFCBidding.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5415" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5415" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="54">
   <si>
     <t>Sl No</t>
   </si>
@@ -169,6 +170,28 @@
   </si>
   <si>
     <t>Simon</t>
+  </si>
+  <si>
+    <t>Planned Max
+Bid Amt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max BID Allowed
+Now </t>
+  </si>
+  <si>
+    <t>Increase or</t>
+  </si>
+  <si>
+    <t>Player order</t>
+  </si>
+  <si>
+    <t>Original Player
+Order</t>
+  </si>
+  <si>
+    <t>Original Bid
+Amt</t>
   </si>
 </sst>
 </file>
@@ -178,7 +201,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,8 +232,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,6 +305,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -296,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -309,14 +373,34 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -610,10 +694,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="7"/>
       <c r="J1" t="s">
         <v>7</v>
@@ -899,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,34 +995,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="3">
         <v>1000</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -946,7 +1030,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
@@ -955,7 +1039,7 @@
       <c r="D2">
         <v>4.5</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <v>180</v>
       </c>
       <c r="G2" s="2">
@@ -979,7 +1063,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
@@ -988,7 +1072,7 @@
       <c r="D3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>85</v>
       </c>
       <c r="G3" s="2">
@@ -1021,7 +1105,7 @@
       <c r="D4">
         <v>3.7</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>70</v>
       </c>
       <c r="G4" s="2">
@@ -1045,7 +1129,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
@@ -1054,7 +1138,7 @@
       <c r="D5">
         <v>3.8</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>75</v>
       </c>
       <c r="G5" s="2">
@@ -1078,7 +1162,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
@@ -1087,7 +1171,7 @@
       <c r="D6">
         <v>3.7</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>50</v>
       </c>
       <c r="G6" s="2">
@@ -1117,7 +1201,7 @@
       <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>25</v>
       </c>
       <c r="G7" s="2">
@@ -1141,7 +1225,7 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C8" t="s">
@@ -1150,7 +1234,7 @@
       <c r="D8">
         <v>3.4</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>50</v>
       </c>
       <c r="G8" s="2">
@@ -1174,7 +1258,7 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C9" t="s">
@@ -1183,7 +1267,7 @@
       <c r="D9">
         <v>3.9</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>75</v>
       </c>
       <c r="G9" s="2">
@@ -1214,7 +1298,7 @@
       <c r="D10">
         <v>3.5</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>50</v>
       </c>
       <c r="G10" s="2">
@@ -1238,7 +1322,7 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C11" t="s">
@@ -1247,7 +1331,7 @@
       <c r="D11">
         <v>4.2</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>150</v>
       </c>
       <c r="G11" s="2">
@@ -1271,7 +1355,7 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C12" t="s">
@@ -1280,7 +1364,7 @@
       <c r="D12">
         <v>4.5</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>125</v>
       </c>
       <c r="G12" s="2">
@@ -1311,7 +1395,7 @@
       <c r="D13">
         <v>3.5</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <v>50</v>
       </c>
       <c r="G13" s="2">
@@ -1332,22 +1416,22 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E14" s="9"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="10"/>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
@@ -1539,4 +1623,437 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="21">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="15">
+        <v>150</v>
+      </c>
+      <c r="D2" s="13">
+        <v>155</v>
+      </c>
+      <c r="E2" s="16"/>
+      <c r="F2" s="22">
+        <f>SUM(C2-D2)</f>
+        <v>-5</v>
+      </c>
+      <c r="G2" s="2">
+        <f>SUM(G1-C2)</f>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="15">
+        <v>115</v>
+      </c>
+      <c r="D3" s="13">
+        <v>125</v>
+      </c>
+      <c r="E3" s="16">
+        <f>SUM(G24)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="22">
+        <f t="shared" ref="F3:F13" si="0">SUM(C3-D3)</f>
+        <v>-10</v>
+      </c>
+      <c r="G3" s="2">
+        <f>SUM(G2-C3)</f>
+        <v>735</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="15">
+        <v>80</v>
+      </c>
+      <c r="D4" s="13">
+        <v>90</v>
+      </c>
+      <c r="E4" s="16">
+        <f t="shared" ref="E4:E13" si="1">SUM(G25)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="22">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" ref="G4:G13" si="2">SUM(G3-C4)</f>
+        <v>655</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="15">
+        <v>110</v>
+      </c>
+      <c r="D5" s="13">
+        <v>100</v>
+      </c>
+      <c r="E5" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="22">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="2"/>
+        <v>545</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="15">
+        <v>40</v>
+      </c>
+      <c r="D6" s="13">
+        <v>50</v>
+      </c>
+      <c r="E6" s="16">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F6" s="22">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="2"/>
+        <v>505</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="15">
+        <v>35</v>
+      </c>
+      <c r="D7" s="13">
+        <v>45</v>
+      </c>
+      <c r="E7" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="22">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="2"/>
+        <v>470</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="15">
+        <v>65</v>
+      </c>
+      <c r="D8" s="13">
+        <v>70</v>
+      </c>
+      <c r="E8" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="22">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="2"/>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="15">
+        <v>75</v>
+      </c>
+      <c r="D9" s="13">
+        <v>80</v>
+      </c>
+      <c r="E9" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="22">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="2"/>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="15">
+        <v>40</v>
+      </c>
+      <c r="D10" s="13">
+        <v>60</v>
+      </c>
+      <c r="E10" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="22">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="2"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="15">
+        <v>125</v>
+      </c>
+      <c r="D11" s="13">
+        <v>125</v>
+      </c>
+      <c r="E11" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="2"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="15">
+        <v>110</v>
+      </c>
+      <c r="D12" s="13">
+        <v>110</v>
+      </c>
+      <c r="E12" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="15">
+        <v>30</v>
+      </c>
+      <c r="D13" s="13">
+        <v>40</v>
+      </c>
+      <c r="E13" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="22">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F24" t="b">
+        <f>IF(F2&gt;0, TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G24" t="b">
+        <f>IF(F24=TRUE, D3-F2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F25" t="b">
+        <f t="shared" ref="F25:F33" si="3">IF(F3&gt;0, TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G25" t="b">
+        <f t="shared" ref="G25:G33" si="4">IF(F25=TRUE, D4-F3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F26" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G26" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F27" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F28" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G28" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F29" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G29" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F30" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G30" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F31" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G31" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F32" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G32" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F33" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G33" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>